--- a/Dummy Data/Vanguard Fund Excel Dummy Data.xlsx
+++ b/Dummy Data/Vanguard Fund Excel Dummy Data.xlsx
@@ -6682,7 +6682,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
